--- a/cypress/fixtures/LoginData.xlsx
+++ b/cypress/fixtures/LoginData.xlsx
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t>Admin</t>
@@ -688,10 +685,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1229,7 +1226,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1250,24 +1247,24 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>123</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
